--- a/data/Crime_In_US_By_State/Crime_In_US_By_State_2001.xlsx
+++ b/data/Crime_In_US_By_State/Crime_In_US_By_State_2001.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97FF2CD-CA59-2D4E-A311-6D4ABD603A2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F0610F-CC22-1C4E-8270-2006BF7CCA84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="5300" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE9A" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t>State</t>
   </si>
   <si>
-    <t>Murder and nonnegligent manslaugther</t>
-  </si>
-  <si>
     <t>Rape</t>
   </si>
   <si>
@@ -364,6 +361,11 @@
   </si>
   <si>
     <t>Kansas</t>
+  </si>
+  <si>
+    <t>Murder and 
+nonnegligent 
+manslaughter</t>
   </si>
 </sst>
 </file>
@@ -439,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -473,6 +475,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -794,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="132" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B51"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.19921875" defaultRowHeight="18"/>
@@ -827,11 +832,11 @@
       <c r="D1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>11</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>0</v>
@@ -851,10 +856,10 @@
     </row>
     <row r="2" spans="1:11" ht="19">
       <c r="A2" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2">
         <v>2001</v>
@@ -886,10 +891,10 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2">
         <v>2001</v>
@@ -921,10 +926,10 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2">
         <v>2001</v>
@@ -956,10 +961,10 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2">
         <v>2001</v>
@@ -991,10 +996,10 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2">
         <v>2001</v>
@@ -1026,10 +1031,10 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2">
         <v>2001</v>
@@ -1061,10 +1066,10 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2">
         <v>2001</v>
@@ -1096,10 +1101,10 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2">
         <v>2001</v>
@@ -1131,10 +1136,10 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2">
         <v>2001</v>
@@ -1166,10 +1171,10 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2">
         <v>2001</v>
@@ -1201,10 +1206,10 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2">
         <v>2001</v>
@@ -1236,10 +1241,10 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2">
         <v>2001</v>
@@ -1271,10 +1276,10 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2">
         <v>2001</v>
@@ -1306,10 +1311,10 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="2">
         <v>2001</v>
@@ -1341,10 +1346,10 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="2">
         <v>2001</v>
@@ -1376,10 +1381,10 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="2">
         <v>2001</v>
@@ -1411,10 +1416,10 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="2">
         <v>2001</v>
@@ -1446,10 +1451,10 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="2">
         <v>2001</v>
@@ -1481,10 +1486,10 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="2">
         <v>2001</v>
@@ -1516,10 +1521,10 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="2">
         <v>2001</v>
@@ -1551,10 +1556,10 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="2">
         <v>2001</v>
@@ -1586,10 +1591,10 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="2">
         <v>2001</v>
@@ -1621,10 +1626,10 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="2">
         <v>2001</v>
@@ -1656,10 +1661,10 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="2">
         <v>2001</v>
@@ -1691,10 +1696,10 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="2">
         <v>2001</v>
@@ -1726,10 +1731,10 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="2">
         <v>2001</v>
@@ -1761,10 +1766,10 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="2">
         <v>2001</v>
@@ -1796,10 +1801,10 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="2">
         <v>2001</v>
@@ -1831,10 +1836,10 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="2">
         <v>2001</v>
@@ -1866,10 +1871,10 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="2">
         <v>2001</v>
@@ -1901,10 +1906,10 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="2">
         <v>2001</v>
@@ -1936,10 +1941,10 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="2">
         <v>2001</v>
@@ -1971,10 +1976,10 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="2">
         <v>2001</v>
@@ -2006,10 +2011,10 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" s="2">
         <v>2001</v>
@@ -2041,10 +2046,10 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" s="2">
         <v>2001</v>
@@ -2076,10 +2081,10 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" s="2">
         <v>2001</v>
@@ -2111,10 +2116,10 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="2">
         <v>2001</v>
@@ -2146,10 +2151,10 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C39" s="2">
         <v>2001</v>
@@ -2181,10 +2186,10 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="2">
         <v>2001</v>
@@ -2216,10 +2221,10 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41" s="2">
         <v>2001</v>
@@ -2251,10 +2256,10 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" s="2">
         <v>2001</v>
@@ -2286,10 +2291,10 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C43" s="2">
         <v>2001</v>
@@ -2321,10 +2326,10 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" s="2">
         <v>2001</v>
@@ -2356,10 +2361,10 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C45" s="2">
         <v>2001</v>
@@ -2391,10 +2396,10 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C46" s="2">
         <v>2001</v>
@@ -2426,10 +2431,10 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C47" s="2">
         <v>2001</v>
@@ -2461,10 +2466,10 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C48" s="2">
         <v>2001</v>
@@ -2496,10 +2501,10 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C49" s="2">
         <v>2001</v>
@@ -2531,10 +2536,10 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C50" s="2">
         <v>2001</v>
@@ -2566,10 +2571,10 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2">
         <v>2001</v>
